--- a/tools/output_noise_resnet18.xlsx
+++ b/tools/output_noise_resnet18.xlsx
@@ -1,46 +1,404 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="24850" windowHeight="8960" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="test_CactusAerialPhotos_" sheetId="1" r:id="rId1"/>
+    <sheet name="test_catanddog_" sheetId="1" r:id="rId1"/>
+    <sheet name="test_CactusAerialPhotos_" sheetId="2" r:id="rId2"/>
+    <sheet name="test_ShellsorPebbles_" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -63,9 +421,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -73,11 +673,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -360,17 +1012,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -406,28 +1060,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.33333333333333</v>
+        <v>15.6666666666667</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2">
-        <v>0.3880333353976408</v>
+        <v>0.290727000298044</v>
       </c>
       <c r="E2">
-        <v>83.16666666666667</v>
+        <v>88.6780675252279</v>
       </c>
       <c r="F2">
-        <v>0.3880333353976408</v>
+        <v>0.271971617783616</v>
       </c>
       <c r="G2">
-        <v>83.16666666666667</v>
+        <v>89.7340138753255</v>
       </c>
       <c r="H2">
-        <v>1.207292836119731</v>
+        <v>0.382737258217884</v>
       </c>
       <c r="I2">
-        <v>74.79166666666667</v>
+        <v>88.891855875651</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -435,28 +1089,28 @@
         <v>0.08</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>12.6666666666667</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3">
-        <v>0.4021839647988479</v>
+        <v>0.310558086428028</v>
       </c>
       <c r="E3">
-        <v>79.53333282470703</v>
+        <v>86.6394399007161</v>
       </c>
       <c r="F3">
-        <v>0.401091567625602</v>
+        <v>0.308305474143899</v>
       </c>
       <c r="G3">
-        <v>76.95833333333333</v>
+        <v>87.0271148681641</v>
       </c>
       <c r="H3">
-        <v>0.5941413824657599</v>
+        <v>0.546808435041597</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>83.110585530599</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -464,28 +1118,28 @@
         <v>0.16</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>13.6666666666667</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4">
-        <v>0.4366984296043714</v>
+        <v>0.39225040220615</v>
       </c>
       <c r="E4">
-        <v>83.25</v>
+        <v>83.6319376627604</v>
       </c>
       <c r="F4">
-        <v>0.4366984296043714</v>
+        <v>0.39225040220615</v>
       </c>
       <c r="G4">
-        <v>83.25</v>
+        <v>83.6319376627604</v>
       </c>
       <c r="H4">
-        <v>0.5397475254138311</v>
+        <v>0.736061860784384</v>
       </c>
       <c r="I4">
-        <v>76.1999994913737</v>
+        <v>77.1756896972656</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -493,28 +1147,28 @@
         <v>0.24</v>
       </c>
       <c r="B5">
-        <v>15.66666666666667</v>
+        <v>16.3333333333333</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5">
-        <v>0.474829256772995</v>
+        <v>0.47720405531921</v>
       </c>
       <c r="E5">
-        <v>85.5500005086263</v>
+        <v>80.2367223103841</v>
       </c>
       <c r="F5">
-        <v>0.474829256772995</v>
+        <v>0.47720405531921</v>
       </c>
       <c r="G5">
-        <v>85.5500005086263</v>
+        <v>80.2367223103841</v>
       </c>
       <c r="H5">
-        <v>0.5551214860280355</v>
+        <v>1.14797322588026</v>
       </c>
       <c r="I5">
-        <v>79.77499898274739</v>
+        <v>69.7099583943685</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -522,57 +1176,57 @@
         <v>0.32</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>22.6666666666667</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6">
-        <v>0.5503219041029612</v>
+        <v>0.574169589965804</v>
       </c>
       <c r="E6">
-        <v>79.16666666666667</v>
+        <v>71.6615193684896</v>
       </c>
       <c r="F6">
-        <v>0.5479916188319524</v>
+        <v>0.572417634988466</v>
       </c>
       <c r="G6">
-        <v>76.00833129882812</v>
+        <v>72.9248046875</v>
       </c>
       <c r="H6">
-        <v>0.6142032993634542</v>
+        <v>1.52812516789421</v>
       </c>
       <c r="I6">
-        <v>74.60000101725261</v>
+        <v>61.816520690918</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>0.4000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B7">
-        <v>25.33333333333333</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7">
-        <v>0.5786125824054081</v>
+        <v>0.663597039035536</v>
       </c>
       <c r="E7">
-        <v>75</v>
+        <v>60.4929631551107</v>
       </c>
       <c r="F7">
-        <v>0.5786125824054081</v>
+        <v>0.663597039035536</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>60.4929631551107</v>
       </c>
       <c r="H7">
-        <v>0.64313876024882</v>
+        <v>1.02449592212688</v>
       </c>
       <c r="I7">
-        <v>76.79166666666667</v>
+        <v>54.4777959187825</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -580,28 +1234,28 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>33.66666666666666</v>
+        <v>41.6666666666667</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>16.3333333333333</v>
       </c>
       <c r="D8">
-        <v>0.4733724394229148</v>
+        <v>0.223136318571536</v>
       </c>
       <c r="E8">
-        <v>76.34166717529297</v>
+        <v>88.9252192179362</v>
       </c>
       <c r="F8">
-        <v>0.4732853966666946</v>
+        <v>0.212722486919631</v>
       </c>
       <c r="G8">
-        <v>76.35000101725261</v>
+        <v>89.399787902832</v>
       </c>
       <c r="H8">
-        <v>0.5085370937032095</v>
+        <v>0.262941067235853</v>
       </c>
       <c r="I8">
-        <v>74.56666564941406</v>
+        <v>86.8868560791016</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -609,28 +1263,28 @@
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>32.33333333333334</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>14.66666666666667</v>
+        <v>12.6666666666667</v>
       </c>
       <c r="D9">
-        <v>0.2756972675199309</v>
+        <v>0.323293663619665</v>
       </c>
       <c r="E9">
-        <v>87.69999694824219</v>
+        <v>83.8191146850586</v>
       </c>
       <c r="F9">
-        <v>0.2756972675199309</v>
+        <v>0.311079653393208</v>
       </c>
       <c r="G9">
-        <v>87.69999694824219</v>
+        <v>84.4874674479167</v>
       </c>
       <c r="H9">
-        <v>0.4721010254829793</v>
+        <v>0.369337975401271</v>
       </c>
       <c r="I9">
-        <v>76.3249994913737</v>
+        <v>81.4864323933919</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -638,28 +1292,28 @@
         <v>0.16</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>32.3333333333333</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13.6666666666667</v>
       </c>
       <c r="D10">
-        <v>0.2499999086663835</v>
+        <v>0.404958051759151</v>
       </c>
       <c r="E10">
-        <v>88.43333435058594</v>
+        <v>79.8222503662109</v>
       </c>
       <c r="F10">
-        <v>0.238750747619483</v>
+        <v>0.402334052591827</v>
       </c>
       <c r="G10">
-        <v>88.37500254313152</v>
+        <v>79.9960378011068</v>
       </c>
       <c r="H10">
-        <v>0.4979001941025187</v>
+        <v>0.452819756551948</v>
       </c>
       <c r="I10">
-        <v>75.06666564941406</v>
+        <v>77.3293635050456</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -667,28 +1321,28 @@
         <v>0.24</v>
       </c>
       <c r="B11">
-        <v>30.66666666666667</v>
+        <v>30.3333333333333</v>
       </c>
       <c r="C11">
-        <v>17.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>0.2888013051786304</v>
+        <v>0.583186595322106</v>
       </c>
       <c r="E11">
-        <v>86.16666666666667</v>
+        <v>70.8195521036784</v>
       </c>
       <c r="F11">
-        <v>0.2888013051786304</v>
+        <v>0.58147894879977</v>
       </c>
       <c r="G11">
-        <v>86.16666666666667</v>
+        <v>70.8797098795573</v>
       </c>
       <c r="H11">
-        <v>0.4795437796361851</v>
+        <v>0.628484643761877</v>
       </c>
       <c r="I11">
-        <v>76.17500305175781</v>
+        <v>68.5405044555664</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -696,51 +1350,445 @@
         <v>0.32</v>
       </c>
       <c r="B12">
-        <v>35.66666666666666</v>
+        <v>41.3333333333333</v>
       </c>
       <c r="C12">
-        <v>15.66666666666667</v>
+        <v>25.6666666666667</v>
       </c>
       <c r="D12">
-        <v>0.3140165508950617</v>
+        <v>0.74300316540519</v>
+      </c>
+      <c r="E12">
+        <v>62.8861338297526</v>
+      </c>
+      <c r="F12">
+        <v>0.7338847325614</v>
+      </c>
+      <c r="G12">
+        <v>63.2804133097331</v>
+      </c>
+      <c r="H12">
+        <v>0.813733743181293</v>
+      </c>
+      <c r="I12">
+        <v>59.3034057617188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="D13">
+        <v>0.915061633780893</v>
+      </c>
+      <c r="E13">
+        <v>54.203904469808</v>
+      </c>
+      <c r="F13">
+        <v>0.902714065169329</v>
+      </c>
+      <c r="G13">
+        <v>54.979123433431</v>
+      </c>
+      <c r="H13">
+        <v>0.914632638973232</v>
+      </c>
+      <c r="I13">
+        <v>54.243958791097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16.3333333333333</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>0.388033335397641</v>
+      </c>
+      <c r="E2">
+        <v>83.1666666666667</v>
+      </c>
+      <c r="F2">
+        <v>0.388033335397641</v>
+      </c>
+      <c r="G2">
+        <v>83.1666666666667</v>
+      </c>
+      <c r="H2">
+        <v>1.20729283611973</v>
+      </c>
+      <c r="I2">
+        <v>74.7916666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.08</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0.402183964798848</v>
+      </c>
+      <c r="E3">
+        <v>79.533332824707</v>
+      </c>
+      <c r="F3">
+        <v>0.401091567625602</v>
+      </c>
+      <c r="G3">
+        <v>76.9583333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.59414138246576</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.16</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0.436698429604371</v>
+      </c>
+      <c r="E4">
+        <v>83.25</v>
+      </c>
+      <c r="F4">
+        <v>0.436698429604371</v>
+      </c>
+      <c r="G4">
+        <v>83.25</v>
+      </c>
+      <c r="H4">
+        <v>0.539747525413831</v>
+      </c>
+      <c r="I4">
+        <v>76.1999994913737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.24</v>
+      </c>
+      <c r="B5">
+        <v>15.6666666666667</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>0.474829256772995</v>
+      </c>
+      <c r="E5">
+        <v>85.5500005086263</v>
+      </c>
+      <c r="F5">
+        <v>0.474829256772995</v>
+      </c>
+      <c r="G5">
+        <v>85.5500005086263</v>
+      </c>
+      <c r="H5">
+        <v>0.555121486028035</v>
+      </c>
+      <c r="I5">
+        <v>79.7749989827474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>0.32</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>0.550321904102961</v>
+      </c>
+      <c r="E6">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="F6">
+        <v>0.547991618831952</v>
+      </c>
+      <c r="G6">
+        <v>76.0083312988281</v>
+      </c>
+      <c r="H6">
+        <v>0.614203299363454</v>
+      </c>
+      <c r="I6">
+        <v>74.6000010172526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>25.3333333333333</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0.578612582405408</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>0.578612582405408</v>
+      </c>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>0.64313876024882</v>
+      </c>
+      <c r="I7">
+        <v>76.7916666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>33.6666666666667</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0.473372439422915</v>
+      </c>
+      <c r="E8">
+        <v>76.341667175293</v>
+      </c>
+      <c r="F8">
+        <v>0.473285396666695</v>
+      </c>
+      <c r="G8">
+        <v>76.3500010172526</v>
+      </c>
+      <c r="H8">
+        <v>0.50853709370321</v>
+      </c>
+      <c r="I8">
+        <v>74.5666656494141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>32.3333333333333</v>
+      </c>
+      <c r="C9">
+        <v>14.6666666666667</v>
+      </c>
+      <c r="D9">
+        <v>0.275697267519931</v>
+      </c>
+      <c r="E9">
+        <v>87.6999969482422</v>
+      </c>
+      <c r="F9">
+        <v>0.275697267519931</v>
+      </c>
+      <c r="G9">
+        <v>87.6999969482422</v>
+      </c>
+      <c r="H9">
+        <v>0.472101025482979</v>
+      </c>
+      <c r="I9">
+        <v>76.3249994913737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>0.16</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.249999908666383</v>
+      </c>
+      <c r="E10">
+        <v>88.4333343505859</v>
+      </c>
+      <c r="F10">
+        <v>0.238750747619483</v>
+      </c>
+      <c r="G10">
+        <v>88.3750025431315</v>
+      </c>
+      <c r="H10">
+        <v>0.497900194102519</v>
+      </c>
+      <c r="I10">
+        <v>75.0666656494141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>0.24</v>
+      </c>
+      <c r="B11">
+        <v>30.6666666666667</v>
+      </c>
+      <c r="C11">
+        <v>17.6666666666667</v>
+      </c>
+      <c r="D11">
+        <v>0.28880130517863</v>
+      </c>
+      <c r="E11">
+        <v>86.1666666666667</v>
+      </c>
+      <c r="F11">
+        <v>0.28880130517863</v>
+      </c>
+      <c r="G11">
+        <v>86.1666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.479543779636185</v>
+      </c>
+      <c r="I11">
+        <v>76.1750030517578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>0.32</v>
+      </c>
+      <c r="B12">
+        <v>35.6666666666667</v>
+      </c>
+      <c r="C12">
+        <v>15.6666666666667</v>
+      </c>
+      <c r="D12">
+        <v>0.314016550895062</v>
       </c>
       <c r="E12">
         <v>84.4500020345052</v>
       </c>
       <c r="F12">
-        <v>0.3139081482339294</v>
+        <v>0.313908148233929</v>
       </c>
       <c r="G12">
-        <v>84.45833333333333</v>
+        <v>84.4583333333333</v>
       </c>
       <c r="H12">
-        <v>0.4357275762783019</v>
+        <v>0.435727576278302</v>
       </c>
       <c r="I12">
-        <v>78.25833384195964</v>
+        <v>78.2583338419596</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>0.4000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B13">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>14.33333333333333</v>
+        <v>14.3333333333333</v>
       </c>
       <c r="D13">
-        <v>0.4492812366557919</v>
+        <v>0.449281236655792</v>
       </c>
       <c r="E13">
-        <v>77.84166717529297</v>
+        <v>77.841667175293</v>
       </c>
       <c r="F13">
-        <v>0.4492812366557919</v>
+        <v>0.449281236655792</v>
       </c>
       <c r="G13">
-        <v>77.84166717529297</v>
+        <v>77.841667175293</v>
       </c>
       <c r="H13">
         <v>0.550141791448835</v>
@@ -751,5 +1799,400 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.3333333333333</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>0.50539312886601</v>
+      </c>
+      <c r="E2">
+        <v>75.4697265625</v>
+      </c>
+      <c r="F2">
+        <v>0.501342875127234</v>
+      </c>
+      <c r="G2">
+        <v>75.9826889038086</v>
+      </c>
+      <c r="H2">
+        <v>0.875906602670107</v>
+      </c>
+      <c r="I2">
+        <v>73.93763478597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.08</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0.541522214553027</v>
+      </c>
+      <c r="E3">
+        <v>72.8732376098633</v>
+      </c>
+      <c r="F3">
+        <v>0.532809531206014</v>
+      </c>
+      <c r="G3">
+        <v>73.82044728597</v>
+      </c>
+      <c r="H3">
+        <v>0.878462613105183</v>
+      </c>
+      <c r="I3">
+        <v>68.8606770833333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.16</v>
+      </c>
+      <c r="B4">
+        <v>20.3333333333333</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0.575288046494771</v>
+      </c>
+      <c r="E4">
+        <v>69.6440607706706</v>
+      </c>
+      <c r="F4">
+        <v>0.555064730983078</v>
+      </c>
+      <c r="G4">
+        <v>71.5764363606771</v>
+      </c>
+      <c r="H4">
+        <v>0.978119501789672</v>
+      </c>
+      <c r="I4">
+        <v>67.3190155029297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.24</v>
+      </c>
+      <c r="B5">
+        <v>28.3333333333333</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>0.591818110430679</v>
+      </c>
+      <c r="E5">
+        <v>68.6213531494141</v>
+      </c>
+      <c r="F5">
+        <v>0.585702435552084</v>
+      </c>
+      <c r="G5">
+        <v>69.6063791910807</v>
+      </c>
+      <c r="H5">
+        <v>1.02370476615809</v>
+      </c>
+      <c r="I5">
+        <v>63.1893653869629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>0.32</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>0.630872762543331</v>
+      </c>
+      <c r="E6">
+        <v>66.7337163289388</v>
+      </c>
+      <c r="F6">
+        <v>0.630054612433382</v>
+      </c>
+      <c r="G6">
+        <v>65.8699544270833</v>
+      </c>
+      <c r="H6">
+        <v>0.642879400853087</v>
+      </c>
+      <c r="I6">
+        <v>66.1003697713216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>17.6666666666667</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0.649901477655101</v>
+      </c>
+      <c r="E7">
+        <v>64.8049112955729</v>
+      </c>
+      <c r="F7">
+        <v>0.649901477655101</v>
+      </c>
+      <c r="G7">
+        <v>64.8049112955729</v>
+      </c>
+      <c r="H7">
+        <v>0.673665088100606</v>
+      </c>
+      <c r="I7">
+        <v>60.1706619262695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>36.6666666666667</v>
+      </c>
+      <c r="C8">
+        <v>15.3333333333333</v>
+      </c>
+      <c r="D8">
+        <v>0.522452437076863</v>
+      </c>
+      <c r="E8">
+        <v>74.0552800496419</v>
+      </c>
+      <c r="F8">
+        <v>0.50453202797046</v>
+      </c>
+      <c r="G8">
+        <v>74.961784362793</v>
+      </c>
+      <c r="H8">
+        <v>0.594960423061919</v>
+      </c>
+      <c r="I8">
+        <v>70.3173166910807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>36.3333333333333</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0.565415457567087</v>
+      </c>
+      <c r="E9">
+        <v>71.848622639974</v>
+      </c>
+      <c r="F9">
+        <v>0.556746569008534</v>
+      </c>
+      <c r="G9">
+        <v>72.7951354980469</v>
+      </c>
+      <c r="H9">
+        <v>0.630015143278058</v>
+      </c>
+      <c r="I9">
+        <v>68.6599095662435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>0.16</v>
+      </c>
+      <c r="B10">
+        <v>39.6666666666667</v>
+      </c>
+      <c r="C10">
+        <v>20.3333333333333</v>
+      </c>
+      <c r="D10">
+        <v>0.648938995040056</v>
+      </c>
+      <c r="E10">
+        <v>67.7923405965169</v>
+      </c>
+      <c r="F10">
+        <v>0.629204683194714</v>
+      </c>
+      <c r="G10">
+        <v>68.7776056925456</v>
+      </c>
+      <c r="H10">
+        <v>0.670324613647183</v>
+      </c>
+      <c r="I10">
+        <v>66.5713742574056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>0.24</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>28.3333333333333</v>
+      </c>
+      <c r="D11">
+        <v>0.767138834670124</v>
+      </c>
+      <c r="E11">
+        <v>61.7692031860352</v>
+      </c>
+      <c r="F11">
+        <v>0.740416221997839</v>
+      </c>
+      <c r="G11">
+        <v>63.0698636372884</v>
+      </c>
+      <c r="H11">
+        <v>0.761252631577717</v>
+      </c>
+      <c r="I11">
+        <v>62.0066324869792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>0.32</v>
+      </c>
+      <c r="B12">
+        <v>73.6666666666667</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0.70946021310514</v>
+      </c>
+      <c r="E12">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="F12">
+        <v>0.701119364273133</v>
+      </c>
+      <c r="G12">
+        <v>64.9991760253906</v>
+      </c>
+      <c r="H12">
+        <v>0.709452244124731</v>
+      </c>
+      <c r="I12">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <v>62.3333333333333</v>
+      </c>
+      <c r="C13">
+        <v>17.6666666666667</v>
+      </c>
+      <c r="D13">
+        <v>0.720829840992447</v>
+      </c>
+      <c r="E13">
+        <v>63.9780909220378</v>
+      </c>
+      <c r="F13">
+        <v>0.717568191609261</v>
+      </c>
+      <c r="G13">
+        <v>64.1744003295898</v>
+      </c>
+      <c r="H13">
+        <v>0.742653034595439</v>
+      </c>
+      <c r="I13">
+        <v>62.9180196126302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tools/output_noise_resnet18.xlsx
+++ b/tools/output_noise_resnet18.xlsx
@@ -4,39 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24850" windowHeight="8960" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="17660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_catanddog_" sheetId="1" r:id="rId1"/>
     <sheet name="test_CactusAerialPhotos_" sheetId="2" r:id="rId2"/>
     <sheet name="test_ShellsorPebbles_" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,28 +43,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +63,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,11 +79,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,22 +115,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -147,13 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,28 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +199,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,85 +307,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,55 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,39 +417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,6 +450,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -522,148 +502,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,52 +655,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1020,8 +1000,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1808,8 +1788,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
